--- a/projects/DC_analysis/PTool_3_of_5.xlsx
+++ b/projects/DC_analysis/PTool_3_of_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3000" windowWidth="10296" windowHeight="2364" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="3000" windowWidth="10296" windowHeight="2364" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="492">
   <si>
     <t>type</t>
   </si>
@@ -1473,6 +1473,45 @@
   </si>
   <si>
     <t>Ptool_3_of_5</t>
+  </si>
+  <si>
+    <t>Run Measure indoor temp</t>
+  </si>
+  <si>
+    <t>Run Measure chilled water supply</t>
+  </si>
+  <si>
+    <t>Run Measure close outdoor air damper</t>
+  </si>
+  <si>
+    <t>Run Measure cold climate heat pumps</t>
+  </si>
+  <si>
+    <t>Run Measure current LEDs</t>
+  </si>
+  <si>
+    <t>Run Measure 2020 LEDs</t>
+  </si>
+  <si>
+    <t>Run Measure controllable power outlets</t>
+  </si>
+  <si>
+    <t>Run Measure HVAC operations schedule</t>
+  </si>
+  <si>
+    <t>Run Measure desktop power management</t>
+  </si>
+  <si>
+    <t>Run Measure display power management</t>
+  </si>
+  <si>
+    <t>Run Measure elevator cab lighting controls</t>
+  </si>
+  <si>
+    <t>Run Measure exhaust fan interlock</t>
+  </si>
+  <si>
+    <t>Run Measure exterior lighting control</t>
   </si>
 </sst>
 </file>
@@ -3989,12 +4028,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1842">
     <cellStyle name="20% - Accent1" xfId="1819" builtinId="30" customBuiltin="1"/>
@@ -6173,7 +6212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -6609,9 +6648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6666,14 +6705,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -6908,67 +6947,70 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50">
+      <c r="H9" s="49"/>
+      <c r="I9" s="49">
         <v>1</v>
       </c>
       <c r="J9" s="30"/>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <v>0</v>
       </c>
-      <c r="L9" s="49">
-        <v>1</v>
-      </c>
-      <c r="M9" s="49">
-        <v>1</v>
-      </c>
-      <c r="N9" s="49">
-        <v>1</v>
-      </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49" t="s">
+      <c r="L9" s="48">
+        <v>1</v>
+      </c>
+      <c r="M9" s="48">
+        <v>1</v>
+      </c>
+      <c r="N9" s="48">
+        <v>1</v>
+      </c>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48" t="s">
         <v>263</v>
       </c>
+      <c r="R9" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="49">
         <v>1</v>
       </c>
       <c r="J10" s="30"/>
@@ -6991,43 +7033,46 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50">
+      <c r="H12" s="49"/>
+      <c r="I12" s="49">
         <v>1</v>
       </c>
       <c r="J12" s="30"/>
-      <c r="K12" s="49">
+      <c r="K12" s="48">
         <v>0</v>
       </c>
-      <c r="L12" s="49">
-        <v>1</v>
-      </c>
-      <c r="M12" s="49">
-        <v>1</v>
-      </c>
-      <c r="N12" s="49">
-        <v>1</v>
-      </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49" t="s">
+      <c r="L12" s="48">
+        <v>1</v>
+      </c>
+      <c r="M12" s="48">
+        <v>1</v>
+      </c>
+      <c r="N12" s="48">
+        <v>1</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48" t="s">
         <v>263</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7048,43 +7093,46 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49">
         <v>1</v>
       </c>
       <c r="J14" s="30"/>
-      <c r="K14" s="49">
+      <c r="K14" s="48">
         <v>0</v>
       </c>
-      <c r="L14" s="49">
-        <v>1</v>
-      </c>
-      <c r="M14" s="49">
-        <v>1</v>
-      </c>
-      <c r="N14" s="49">
-        <v>1</v>
-      </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49" t="s">
+      <c r="L14" s="48">
+        <v>1</v>
+      </c>
+      <c r="M14" s="48">
+        <v>1</v>
+      </c>
+      <c r="N14" s="48">
+        <v>1</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48" t="s">
         <v>263</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -7105,46 +7153,49 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50" t="s">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50">
+      <c r="H16" s="49"/>
+      <c r="I16" s="49">
         <v>1</v>
       </c>
       <c r="J16" s="30"/>
-      <c r="K16" s="49">
+      <c r="K16" s="48">
         <v>0</v>
       </c>
-      <c r="L16" s="49">
-        <v>1</v>
-      </c>
-      <c r="M16" s="49">
-        <v>1</v>
-      </c>
-      <c r="N16" s="49">
-        <v>1</v>
-      </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49" t="s">
+      <c r="L16" s="48">
+        <v>1</v>
+      </c>
+      <c r="M16" s="48">
+        <v>1</v>
+      </c>
+      <c r="N16" s="48">
+        <v>1</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="b">
         <v>1</v>
       </c>
@@ -7161,47 +7212,50 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="E18" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50">
+      <c r="H18" s="49"/>
+      <c r="I18" s="49">
         <v>1</v>
       </c>
       <c r="J18" s="30"/>
-      <c r="K18" s="49">
+      <c r="K18" s="48">
         <v>0</v>
       </c>
-      <c r="L18" s="49">
-        <v>1</v>
-      </c>
-      <c r="M18" s="49">
-        <v>1</v>
-      </c>
-      <c r="N18" s="49">
-        <v>1</v>
-      </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49" t="s">
+      <c r="L18" s="48">
+        <v>1</v>
+      </c>
+      <c r="M18" s="48">
+        <v>1</v>
+      </c>
+      <c r="N18" s="48">
+        <v>1</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="b">
         <v>1</v>
       </c>
@@ -7218,47 +7272,50 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50">
+      <c r="H20" s="49"/>
+      <c r="I20" s="49">
         <v>1</v>
       </c>
       <c r="J20" s="30"/>
-      <c r="K20" s="49">
+      <c r="K20" s="48">
         <v>0</v>
       </c>
-      <c r="L20" s="49">
-        <v>1</v>
-      </c>
-      <c r="M20" s="49">
-        <v>1</v>
-      </c>
-      <c r="N20" s="49">
-        <v>1</v>
-      </c>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49" t="s">
+      <c r="L20" s="48">
+        <v>1</v>
+      </c>
+      <c r="M20" s="48">
+        <v>1</v>
+      </c>
+      <c r="N20" s="48">
+        <v>1</v>
+      </c>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="b">
         <v>1</v>
       </c>
@@ -7275,289 +7332,292 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E22" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51">
+      <c r="H22" s="50"/>
+      <c r="I22" s="50">
         <v>1</v>
       </c>
       <c r="J22" s="30"/>
-      <c r="K22" s="49">
+      <c r="K22" s="48">
         <v>0</v>
       </c>
-      <c r="L22" s="49">
-        <v>1</v>
-      </c>
-      <c r="M22" s="49">
-        <v>1</v>
-      </c>
-      <c r="N22" s="49">
-        <v>1</v>
-      </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49" t="s">
+      <c r="L22" s="48">
+        <v>1</v>
+      </c>
+      <c r="M22" s="48">
+        <v>1</v>
+      </c>
+      <c r="N22" s="48">
+        <v>1</v>
+      </c>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51" t="s">
+      <c r="R22" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51">
+      <c r="H23" s="50"/>
+      <c r="I23" s="50">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="H24" s="50"/>
+      <c r="I24" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51" t="s">
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="51" t="s">
+      <c r="H29" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51" t="s">
+      <c r="H30" s="50"/>
+      <c r="I30" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="51" t="s">
+      <c r="H31" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="b">
         <v>1</v>
       </c>
@@ -7575,46 +7635,49 @@
       </c>
       <c r="J33" s="36"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51">
-        <v>1</v>
-      </c>
-      <c r="K34" s="49">
+      <c r="H34" s="50"/>
+      <c r="I34" s="50">
+        <v>1</v>
+      </c>
+      <c r="K34" s="48">
         <v>0</v>
       </c>
-      <c r="L34" s="49">
-        <v>1</v>
-      </c>
-      <c r="M34" s="49">
-        <v>1</v>
-      </c>
-      <c r="N34" s="49">
-        <v>1</v>
-      </c>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49" t="s">
+      <c r="L34" s="48">
+        <v>1</v>
+      </c>
+      <c r="M34" s="48">
+        <v>1</v>
+      </c>
+      <c r="N34" s="48">
+        <v>1</v>
+      </c>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="b">
         <v>1</v>
       </c>
@@ -7632,272 +7695,291 @@
       </c>
       <c r="J35" s="36"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51" t="s">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E36" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51" t="s">
+      <c r="H36" s="50"/>
+      <c r="I36" s="50">
+        <v>1</v>
+      </c>
+      <c r="K36" s="48">
+        <v>0</v>
+      </c>
+      <c r="L36" s="48">
+        <v>1</v>
+      </c>
+      <c r="M36" s="48">
+        <v>1</v>
+      </c>
+      <c r="N36" s="48">
+        <v>1</v>
+      </c>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="R36" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="51" t="s">
+      <c r="G37" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51">
+      <c r="H37" s="50"/>
+      <c r="I37" s="50">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51" t="s">
+      <c r="H38" s="50"/>
+      <c r="I38" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I39" s="51">
+      <c r="I39" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="51" t="s">
+      <c r="H40" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I40" s="51">
+      <c r="I40" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51" t="s">
+      <c r="H41" s="50"/>
+      <c r="I41" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="51" t="s">
+      <c r="H43" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I43" s="51">
+      <c r="I43" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51" t="s">
+      <c r="H44" s="50"/>
+      <c r="I44" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="51" t="s">
+      <c r="H45" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I45" s="51">
+      <c r="I45" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="G46" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="51" t="s">
+      <c r="H46" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I46" s="51">
+      <c r="I46" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="b">
         <v>1</v>
       </c>
@@ -7915,288 +7997,291 @@
       </c>
       <c r="J47" s="36"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="C48" s="50"/>
+      <c r="D48" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E48" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51">
-        <v>1</v>
-      </c>
-      <c r="K48" s="49">
+      <c r="H48" s="50"/>
+      <c r="I48" s="50">
+        <v>1</v>
+      </c>
+      <c r="K48" s="48">
         <v>0</v>
       </c>
-      <c r="L48" s="49">
-        <v>1</v>
-      </c>
-      <c r="M48" s="49">
-        <v>1</v>
-      </c>
-      <c r="N48" s="49">
-        <v>1</v>
-      </c>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49" t="s">
+      <c r="L48" s="48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="48">
+        <v>1</v>
+      </c>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51" t="s">
+      <c r="R48" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51">
+      <c r="H49" s="50"/>
+      <c r="I49" s="50">
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="51" t="s">
+      <c r="F50" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G50" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="H50" s="50"/>
+      <c r="I50" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="G51" s="51" t="s">
+      <c r="G51" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="51" t="s">
+      <c r="H51" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I51" s="51">
+      <c r="I51" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="G52" s="51" t="s">
+      <c r="G52" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I52" s="51">
+      <c r="I52" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51" t="s">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="51" t="s">
+      <c r="F53" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51" t="s">
+      <c r="H53" s="50"/>
+      <c r="I53" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="51" t="s">
+      <c r="H54" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I54" s="51">
+      <c r="I54" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51" t="s">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="51" t="s">
+      <c r="H55" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I55" s="51">
+      <c r="I55" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="E56" s="51" t="s">
+      <c r="E56" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="G56" s="51" t="s">
+      <c r="G56" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51" t="s">
+      <c r="H56" s="50"/>
+      <c r="I56" s="50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="G57" s="51" t="s">
+      <c r="G57" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="51" t="s">
+      <c r="H57" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I57" s="51">
+      <c r="I57" s="50">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="51" t="s">
+      <c r="G58" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="51" t="s">
+      <c r="H58" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="I58" s="51">
+      <c r="I58" s="50">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="b">
         <v>1</v>
       </c>
@@ -8214,46 +8299,49 @@
       </c>
       <c r="J59" s="36"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51" t="s">
+      <c r="C60" s="50"/>
+      <c r="D60" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E60" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="G60" s="51" t="s">
+      <c r="G60" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51">
-        <v>1</v>
-      </c>
-      <c r="K60" s="49">
+      <c r="H60" s="50"/>
+      <c r="I60" s="50">
+        <v>1</v>
+      </c>
+      <c r="K60" s="48">
         <v>0</v>
       </c>
-      <c r="L60" s="49">
-        <v>1</v>
-      </c>
-      <c r="M60" s="49">
-        <v>1</v>
-      </c>
-      <c r="N60" s="49">
-        <v>1</v>
-      </c>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49" t="s">
+      <c r="L60" s="48">
+        <v>1</v>
+      </c>
+      <c r="M60" s="48">
+        <v>1</v>
+      </c>
+      <c r="N60" s="48">
+        <v>1</v>
+      </c>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R60" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="b">
         <v>1</v>
       </c>
@@ -8271,46 +8359,49 @@
       </c>
       <c r="J61" s="36"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="50"/>
+      <c r="B62" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51" t="s">
+      <c r="C62" s="50"/>
+      <c r="D62" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E62" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F62" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51">
-        <v>1</v>
-      </c>
-      <c r="K62" s="49">
+      <c r="H62" s="50"/>
+      <c r="I62" s="50">
+        <v>1</v>
+      </c>
+      <c r="K62" s="48">
         <v>0</v>
       </c>
-      <c r="L62" s="49">
-        <v>1</v>
-      </c>
-      <c r="M62" s="49">
-        <v>1</v>
-      </c>
-      <c r="N62" s="49">
-        <v>1</v>
-      </c>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49" t="s">
+      <c r="L62" s="48">
+        <v>1</v>
+      </c>
+      <c r="M62" s="48">
+        <v>1</v>
+      </c>
+      <c r="N62" s="48">
+        <v>1</v>
+      </c>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R62" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="b">
         <v>1</v>
       </c>
@@ -8328,43 +8419,46 @@
       </c>
       <c r="J63" s="36"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="50"/>
+      <c r="B64" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51" t="s">
+      <c r="C64" s="50"/>
+      <c r="D64" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="E64" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="F64" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="G64" s="51" t="s">
+      <c r="G64" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51">
-        <v>1</v>
-      </c>
-      <c r="K64" s="49">
+      <c r="H64" s="50"/>
+      <c r="I64" s="50">
+        <v>1</v>
+      </c>
+      <c r="K64" s="48">
         <v>0</v>
       </c>
-      <c r="L64" s="49">
-        <v>1</v>
-      </c>
-      <c r="M64" s="49">
-        <v>1</v>
-      </c>
-      <c r="N64" s="49">
-        <v>1</v>
-      </c>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49" t="s">
+      <c r="L64" s="48">
+        <v>1</v>
+      </c>
+      <c r="M64" s="48">
+        <v>1</v>
+      </c>
+      <c r="N64" s="48">
+        <v>1</v>
+      </c>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48" t="s">
         <v>263</v>
+      </c>
+      <c r="R64" s="30" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/projects/DC_analysis/PTool_3_of_5.xlsx
+++ b/projects/DC_analysis/PTool_3_of_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3000" windowWidth="10296" windowHeight="2364" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="3000" windowWidth="10296" windowHeight="2364" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="492">
   <si>
     <t>type</t>
   </si>
@@ -881,9 +881,6 @@
     <t>CommercialLightingWithCurrentLEDs</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -1512,6 +1509,9 @@
   </si>
   <si>
     <t>Run Measure exterior lighting control</t>
+  </si>
+  <si>
+    <t>cluster3</t>
   </si>
 </sst>
 </file>
@@ -6213,7 +6213,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6260,7 +6260,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>85</v>
@@ -6271,7 +6271,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>181</v>
@@ -6282,7 +6282,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>100</v>
@@ -6331,7 +6331,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="31"/>
@@ -6353,7 +6353,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>99</v>
@@ -6648,9 +6648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6934,13 +6934,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>312</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>313</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>46</v>
@@ -6953,14 +6953,12 @@
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>300</v>
-      </c>
+      <c r="F9" s="49"/>
       <c r="G9" s="49" t="s">
         <v>45</v>
       </c>
@@ -6996,19 +6994,17 @@
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>314</v>
-      </c>
+      <c r="F10" s="49"/>
       <c r="G10" s="49" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I10" s="49">
         <v>1</v>
@@ -7020,13 +7016,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>317</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>318</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>46</v>
@@ -7039,14 +7035,12 @@
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>300</v>
-      </c>
+      <c r="F12" s="49"/>
       <c r="G12" s="49" t="s">
         <v>45</v>
       </c>
@@ -7080,13 +7074,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>319</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>320</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>46</v>
@@ -7099,14 +7093,12 @@
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E14" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>300</v>
-      </c>
+      <c r="F14" s="49"/>
       <c r="G14" s="49" t="s">
         <v>45</v>
       </c>
@@ -7140,13 +7132,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>321</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>322</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>46</v>
@@ -7159,14 +7151,12 @@
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E16" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>300</v>
-      </c>
+      <c r="F16" s="49"/>
       <c r="G16" s="49" t="s">
         <v>45</v>
       </c>
@@ -7200,10 +7190,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>280</v>
@@ -7219,14 +7209,12 @@
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E18" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>300</v>
-      </c>
+      <c r="F18" s="49"/>
       <c r="G18" s="49" t="s">
         <v>45</v>
       </c>
@@ -7260,13 +7248,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>444</v>
-      </c>
       <c r="D19" s="35" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>46</v>
@@ -7279,14 +7267,12 @@
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="49" t="s">
-        <v>300</v>
-      </c>
+      <c r="F20" s="49"/>
       <c r="G20" s="49" t="s">
         <v>45</v>
       </c>
@@ -7320,13 +7306,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="35" t="s">
         <v>328</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>329</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>46</v>
@@ -7339,14 +7325,12 @@
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E22" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>300</v>
-      </c>
+      <c r="F22" s="50"/>
       <c r="G22" s="50" t="s">
         <v>45</v>
       </c>
@@ -7387,9 +7371,7 @@
       <c r="E23" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="50" t="s">
-        <v>62</v>
-      </c>
+      <c r="F23" s="50"/>
       <c r="G23" s="50" t="s">
         <v>44</v>
       </c>
@@ -7405,14 +7387,12 @@
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>288</v>
-      </c>
+      <c r="F24" s="50"/>
       <c r="G24" s="50" t="s">
         <v>43</v>
       </c>
@@ -7428,19 +7408,17 @@
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="50" t="s">
-        <v>289</v>
-      </c>
+      <c r="F25" s="50"/>
       <c r="G25" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I25" s="50">
         <v>18</v>
@@ -7453,19 +7431,17 @@
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E26" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>291</v>
-      </c>
+      <c r="F26" s="50"/>
       <c r="G26" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I26" s="50">
         <v>9</v>
@@ -7478,14 +7454,12 @@
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E27" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="50" t="s">
-        <v>292</v>
-      </c>
+      <c r="F27" s="50"/>
       <c r="G27" s="50" t="s">
         <v>43</v>
       </c>
@@ -7501,19 +7475,17 @@
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E28" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="50" t="s">
-        <v>293</v>
-      </c>
+      <c r="F28" s="50"/>
       <c r="G28" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I28" s="50">
         <v>18</v>
@@ -7526,19 +7498,17 @@
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E29" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="50" t="s">
-        <v>294</v>
-      </c>
+      <c r="F29" s="50"/>
       <c r="G29" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I29" s="50">
         <v>9</v>
@@ -7551,14 +7521,12 @@
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E30" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="50" t="s">
-        <v>295</v>
-      </c>
+      <c r="F30" s="50"/>
       <c r="G30" s="50" t="s">
         <v>43</v>
       </c>
@@ -7574,19 +7542,17 @@
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="50" t="s">
-        <v>296</v>
-      </c>
+      <c r="F31" s="50"/>
       <c r="G31" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I31" s="50">
         <v>18</v>
@@ -7599,19 +7565,17 @@
       </c>
       <c r="C32" s="50"/>
       <c r="D32" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E32" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="50" t="s">
-        <v>297</v>
-      </c>
+      <c r="F32" s="50"/>
       <c r="G32" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I32" s="50">
         <v>9</v>
@@ -7622,13 +7586,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>330</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>331</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>46</v>
@@ -7642,14 +7606,12 @@
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="50" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E34" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="50" t="s">
-        <v>300</v>
-      </c>
+      <c r="F34" s="50"/>
       <c r="G34" s="50" t="s">
         <v>45</v>
       </c>
@@ -7682,13 +7644,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>332</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>333</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>46</v>
@@ -7702,14 +7664,12 @@
       </c>
       <c r="C36" s="50"/>
       <c r="D36" s="50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E36" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F36" s="50" t="s">
-        <v>300</v>
-      </c>
+      <c r="F36" s="50"/>
       <c r="G36" s="50" t="s">
         <v>45</v>
       </c>
@@ -7749,9 +7709,7 @@
       <c r="E37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="50" t="s">
-        <v>62</v>
-      </c>
+      <c r="F37" s="50"/>
       <c r="G37" s="50" t="s">
         <v>44</v>
       </c>
@@ -7767,14 +7725,12 @@
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="50" t="s">
-        <v>288</v>
-      </c>
+      <c r="F38" s="50"/>
       <c r="G38" s="50" t="s">
         <v>43</v>
       </c>
@@ -7790,19 +7746,17 @@
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E39" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="50" t="s">
-        <v>289</v>
-      </c>
+      <c r="F39" s="50"/>
       <c r="G39" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I39" s="50">
         <v>18</v>
@@ -7815,19 +7769,17 @@
       </c>
       <c r="C40" s="50"/>
       <c r="D40" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E40" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="50" t="s">
-        <v>291</v>
-      </c>
+      <c r="F40" s="50"/>
       <c r="G40" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I40" s="50">
         <v>9</v>
@@ -7840,14 +7792,12 @@
       </c>
       <c r="C41" s="50"/>
       <c r="D41" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="50" t="s">
-        <v>292</v>
-      </c>
+      <c r="F41" s="50"/>
       <c r="G41" s="50" t="s">
         <v>43</v>
       </c>
@@ -7863,19 +7813,17 @@
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="50" t="s">
-        <v>293</v>
-      </c>
+      <c r="F42" s="50"/>
       <c r="G42" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I42" s="50">
         <v>18</v>
@@ -7888,19 +7836,17 @@
       </c>
       <c r="C43" s="50"/>
       <c r="D43" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="50" t="s">
-        <v>294</v>
-      </c>
+      <c r="F43" s="50"/>
       <c r="G43" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I43" s="50">
         <v>9</v>
@@ -7913,14 +7859,12 @@
       </c>
       <c r="C44" s="50"/>
       <c r="D44" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="50" t="s">
-        <v>295</v>
-      </c>
+      <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
         <v>43</v>
       </c>
@@ -7936,19 +7880,17 @@
       </c>
       <c r="C45" s="50"/>
       <c r="D45" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="50" t="s">
-        <v>296</v>
-      </c>
+      <c r="F45" s="50"/>
       <c r="G45" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I45" s="50">
         <v>18</v>
@@ -7961,19 +7903,17 @@
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="50" t="s">
-        <v>297</v>
-      </c>
+      <c r="F46" s="50"/>
       <c r="G46" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I46" s="50">
         <v>9</v>
@@ -7984,13 +7924,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D47" s="35" t="s">
         <v>334</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>335</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>46</v>
@@ -8004,14 +7944,12 @@
       </c>
       <c r="C48" s="50"/>
       <c r="D48" s="50" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F48" s="50" t="s">
-        <v>300</v>
-      </c>
+      <c r="F48" s="50"/>
       <c r="G48" s="50" t="s">
         <v>45</v>
       </c>
@@ -8051,9 +7989,7 @@
       <c r="E49" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="50" t="s">
-        <v>62</v>
-      </c>
+      <c r="F49" s="50"/>
       <c r="G49" s="50" t="s">
         <v>44</v>
       </c>
@@ -8069,14 +8005,12 @@
       </c>
       <c r="C50" s="50"/>
       <c r="D50" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="50" t="s">
-        <v>288</v>
-      </c>
+      <c r="F50" s="50"/>
       <c r="G50" s="50" t="s">
         <v>43</v>
       </c>
@@ -8092,19 +8026,17 @@
       </c>
       <c r="C51" s="50"/>
       <c r="D51" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="50" t="s">
-        <v>289</v>
-      </c>
+      <c r="F51" s="50"/>
       <c r="G51" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I51" s="50">
         <v>18</v>
@@ -8117,19 +8049,17 @@
       </c>
       <c r="C52" s="50"/>
       <c r="D52" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E52" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="50" t="s">
-        <v>291</v>
-      </c>
+      <c r="F52" s="50"/>
       <c r="G52" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I52" s="50">
         <v>9</v>
@@ -8142,14 +8072,12 @@
       </c>
       <c r="C53" s="50"/>
       <c r="D53" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E53" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="50" t="s">
-        <v>292</v>
-      </c>
+      <c r="F53" s="50"/>
       <c r="G53" s="50" t="s">
         <v>43</v>
       </c>
@@ -8165,19 +8093,17 @@
       </c>
       <c r="C54" s="50"/>
       <c r="D54" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E54" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="50" t="s">
-        <v>293</v>
-      </c>
+      <c r="F54" s="50"/>
       <c r="G54" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H54" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I54" s="50">
         <v>18</v>
@@ -8190,19 +8116,17 @@
       </c>
       <c r="C55" s="50"/>
       <c r="D55" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E55" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="50" t="s">
-        <v>294</v>
-      </c>
+      <c r="F55" s="50"/>
       <c r="G55" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H55" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I55" s="50">
         <v>9</v>
@@ -8215,14 +8139,12 @@
       </c>
       <c r="C56" s="50"/>
       <c r="D56" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E56" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="50" t="s">
-        <v>295</v>
-      </c>
+      <c r="F56" s="50"/>
       <c r="G56" s="50" t="s">
         <v>43</v>
       </c>
@@ -8238,19 +8160,17 @@
       </c>
       <c r="C57" s="50"/>
       <c r="D57" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E57" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="50" t="s">
-        <v>296</v>
-      </c>
+      <c r="F57" s="50"/>
       <c r="G57" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I57" s="50">
         <v>18</v>
@@ -8263,19 +8183,17 @@
       </c>
       <c r="C58" s="50"/>
       <c r="D58" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="50" t="s">
-        <v>297</v>
-      </c>
+      <c r="F58" s="50"/>
       <c r="G58" s="50" t="s">
         <v>44</v>
       </c>
       <c r="H58" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I58" s="50">
         <v>9</v>
@@ -8286,13 +8204,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="D59" s="35" t="s">
         <v>336</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>337</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>46</v>
@@ -8306,14 +8224,12 @@
       </c>
       <c r="C60" s="50"/>
       <c r="D60" s="50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E60" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F60" s="50" t="s">
-        <v>300</v>
-      </c>
+      <c r="F60" s="50"/>
       <c r="G60" s="50" t="s">
         <v>45</v>
       </c>
@@ -8346,13 +8262,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="D61" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>339</v>
       </c>
       <c r="E61" s="35" t="s">
         <v>46</v>
@@ -8366,14 +8282,12 @@
       </c>
       <c r="C62" s="50"/>
       <c r="D62" s="50" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E62" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F62" s="50" t="s">
-        <v>300</v>
-      </c>
+      <c r="F62" s="50"/>
       <c r="G62" s="50" t="s">
         <v>45</v>
       </c>
@@ -8406,13 +8320,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="D63" s="35" t="s">
         <v>340</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>341</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>46</v>
@@ -8426,14 +8340,12 @@
       </c>
       <c r="C64" s="50"/>
       <c r="D64" s="50" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E64" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="F64" s="50" t="s">
-        <v>300</v>
-      </c>
+      <c r="F64" s="50"/>
       <c r="G64" s="50" t="s">
         <v>45</v>
       </c>
@@ -8475,8 +8387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -9118,13 +9030,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>43</v>
@@ -9141,13 +9053,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>43</v>
@@ -9164,13 +9076,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>43</v>
@@ -9187,13 +9099,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>43</v>
@@ -9210,13 +9122,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>43</v>
@@ -9233,13 +9145,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>43</v>
@@ -9256,13 +9168,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>43</v>
@@ -9279,13 +9191,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>43</v>
@@ -9302,13 +9214,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>43</v>
@@ -9325,13 +9237,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>43</v>
@@ -9348,13 +9260,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>43</v>
@@ -9371,13 +9283,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>43</v>
@@ -9394,13 +9306,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>476</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>477</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>43</v>
@@ -9445,13 +9357,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>299</v>
-      </c>
       <c r="D1" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>46</v>
@@ -9468,13 +9380,13 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>45</v>
@@ -9489,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>302</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>46</v>
@@ -9512,13 +9424,13 @@
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>45</v>
@@ -9533,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>49</v>
@@ -9556,13 +9468,13 @@
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>45</v>
@@ -9577,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>304</v>
-      </c>
       <c r="D7" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>46</v>
@@ -9600,13 +9512,13 @@
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>45</v>
@@ -9621,13 +9533,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>306</v>
-      </c>
       <c r="D9" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>46</v>
@@ -9644,13 +9556,13 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>45</v>
@@ -9665,13 +9577,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>308</v>
-      </c>
       <c r="D11" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>46</v>
@@ -9688,13 +9600,13 @@
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>45</v>
@@ -9711,13 +9623,13 @@
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>285</v>
-      </c>
       <c r="F13" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>48</v>
@@ -9730,13 +9642,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>310</v>
-      </c>
       <c r="D14" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>46</v>
@@ -9753,13 +9665,13 @@
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>45</v>
@@ -9776,19 +9688,19 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I16" s="29">
         <v>30</v>
@@ -9799,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>302</v>
-      </c>
       <c r="D17" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>46</v>
@@ -9822,13 +9734,13 @@
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>45</v>
@@ -9843,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>49</v>
@@ -9868,13 +9780,13 @@
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>45</v>
@@ -9889,13 +9801,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>304</v>
-      </c>
       <c r="D21" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>46</v>
@@ -9914,13 +9826,13 @@
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>45</v>
@@ -9935,13 +9847,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>306</v>
-      </c>
       <c r="D23" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>46</v>
@@ -9960,13 +9872,13 @@
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>45</v>
@@ -9981,13 +9893,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>308</v>
-      </c>
       <c r="D25" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>46</v>
@@ -10006,13 +9918,13 @@
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>45</v>
@@ -10029,13 +9941,13 @@
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>285</v>
-      </c>
       <c r="F27" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>48</v>
@@ -10050,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>310</v>
-      </c>
       <c r="D28" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>46</v>
@@ -10075,13 +9987,13 @@
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>45</v>
@@ -10098,19 +10010,19 @@
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I30" s="29">
         <v>31.645390070922002</v>
@@ -10121,13 +10033,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>302</v>
-      </c>
       <c r="D31" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>46</v>
@@ -10144,13 +10056,13 @@
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>45</v>
@@ -10165,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>49</v>
@@ -10190,13 +10102,13 @@
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>45</v>
@@ -10211,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>304</v>
-      </c>
       <c r="D35" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>46</v>
@@ -10236,13 +10148,13 @@
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>45</v>
@@ -10257,13 +10169,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>306</v>
-      </c>
       <c r="D37" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
@@ -10282,13 +10194,13 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>45</v>
@@ -10303,13 +10215,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>308</v>
-      </c>
       <c r="D39" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>46</v>
@@ -10328,13 +10240,13 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>45</v>
@@ -10351,13 +10263,13 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="E41" s="29" t="s">
-        <v>285</v>
-      </c>
       <c r="F41" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>48</v>
@@ -10372,13 +10284,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>310</v>
-      </c>
       <c r="D42" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>46</v>
@@ -10397,13 +10309,13 @@
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>45</v>
@@ -10420,19 +10332,19 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I44" s="29">
         <v>49.916075650118202</v>
@@ -10443,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>302</v>
-      </c>
       <c r="D45" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E45" s="29" t="s">
         <v>46</v>
@@ -10466,13 +10378,13 @@
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>45</v>
@@ -10487,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>49</v>
@@ -10512,13 +10424,13 @@
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>45</v>
@@ -10533,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>304</v>
-      </c>
       <c r="D49" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>46</v>
@@ -10558,13 +10470,13 @@
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>45</v>
@@ -10579,13 +10491,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>306</v>
-      </c>
       <c r="D51" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>46</v>
@@ -10604,13 +10516,13 @@
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>45</v>
@@ -10625,13 +10537,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>313</v>
-      </c>
       <c r="D53" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>46</v>
@@ -10648,13 +10560,13 @@
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>45</v>
@@ -10671,19 +10583,19 @@
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="E55" s="29" t="s">
-        <v>315</v>
-      </c>
       <c r="F55" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I55" s="29">
         <v>1</v>
@@ -10694,13 +10606,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>318</v>
-      </c>
       <c r="D56" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>46</v>
@@ -10717,13 +10629,13 @@
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>45</v>
@@ -10738,13 +10650,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>320</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>46</v>
@@ -10761,13 +10673,13 @@
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>45</v>
@@ -10782,13 +10694,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>322</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>46</v>
@@ -10805,13 +10717,13 @@
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>45</v>
@@ -10826,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>280</v>
@@ -10849,13 +10761,13 @@
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>45</v>
@@ -10870,13 +10782,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>325</v>
-      </c>
       <c r="D64" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>46</v>
@@ -10893,13 +10805,13 @@
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E65" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>45</v>
@@ -10914,13 +10826,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>327</v>
-      </c>
       <c r="D66" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>50</v>
@@ -10937,13 +10849,13 @@
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>45</v>
@@ -10958,13 +10870,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>329</v>
-      </c>
       <c r="D68" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>46</v>
@@ -10981,13 +10893,13 @@
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>45</v>
@@ -11027,13 +10939,13 @@
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>43</v>
@@ -11050,19 +10962,19 @@
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I72" s="29">
         <v>18</v>
@@ -11075,19 +10987,19 @@
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I73" s="29">
         <v>9</v>
@@ -11100,13 +11012,13 @@
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>43</v>
@@ -11123,19 +11035,19 @@
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G75" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I75" s="29">
         <v>18</v>
@@ -11148,19 +11060,19 @@
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I76" s="29">
         <v>9</v>
@@ -11173,13 +11085,13 @@
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E77" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G77" s="29" t="s">
         <v>43</v>
@@ -11196,19 +11108,19 @@
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I78" s="29">
         <v>18</v>
@@ -11221,19 +11133,19 @@
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G79" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I79" s="29">
         <v>9</v>
@@ -11244,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="B80" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C80" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C80" s="29" t="s">
-        <v>331</v>
-      </c>
       <c r="D80" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>46</v>
@@ -11267,13 +11179,13 @@
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G81" s="29" t="s">
         <v>45</v>
@@ -11288,13 +11200,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C82" s="29" t="s">
-        <v>333</v>
-      </c>
       <c r="D82" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>46</v>
@@ -11311,13 +11223,13 @@
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G83" s="29" t="s">
         <v>45</v>
@@ -11357,13 +11269,13 @@
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G85" s="29" t="s">
         <v>43</v>
@@ -11380,19 +11292,19 @@
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G86" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I86" s="29">
         <v>18</v>
@@ -11405,19 +11317,19 @@
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G87" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I87" s="29">
         <v>9</v>
@@ -11430,13 +11342,13 @@
       </c>
       <c r="C88" s="29"/>
       <c r="D88" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G88" s="29" t="s">
         <v>43</v>
@@ -11453,19 +11365,19 @@
       </c>
       <c r="C89" s="29"/>
       <c r="D89" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E89" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G89" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I89" s="29">
         <v>18</v>
@@ -11478,19 +11390,19 @@
       </c>
       <c r="C90" s="29"/>
       <c r="D90" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E90" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G90" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I90" s="29">
         <v>9</v>
@@ -11503,13 +11415,13 @@
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E91" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G91" s="29" t="s">
         <v>43</v>
@@ -11526,19 +11438,19 @@
       </c>
       <c r="C92" s="29"/>
       <c r="D92" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E92" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I92" s="29">
         <v>18</v>
@@ -11551,19 +11463,19 @@
       </c>
       <c r="C93" s="29"/>
       <c r="D93" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E93" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G93" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I93" s="29">
         <v>9</v>
@@ -11574,13 +11486,13 @@
         <v>0</v>
       </c>
       <c r="B94" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C94" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C94" s="29" t="s">
-        <v>335</v>
-      </c>
       <c r="D94" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E94" s="29" t="s">
         <v>46</v>
@@ -11597,13 +11509,13 @@
       </c>
       <c r="C95" s="29"/>
       <c r="D95" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E95" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>45</v>
@@ -11643,13 +11555,13 @@
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E97" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>43</v>
@@ -11666,19 +11578,19 @@
       </c>
       <c r="C98" s="29"/>
       <c r="D98" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G98" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I98" s="29">
         <v>18</v>
@@ -11691,19 +11603,19 @@
       </c>
       <c r="C99" s="29"/>
       <c r="D99" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E99" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G99" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I99" s="29">
         <v>9</v>
@@ -11716,13 +11628,13 @@
       </c>
       <c r="C100" s="29"/>
       <c r="D100" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G100" s="29" t="s">
         <v>43</v>
@@ -11739,19 +11651,19 @@
       </c>
       <c r="C101" s="29"/>
       <c r="D101" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G101" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I101" s="29">
         <v>18</v>
@@ -11764,19 +11676,19 @@
       </c>
       <c r="C102" s="29"/>
       <c r="D102" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E102" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I102" s="29">
         <v>9</v>
@@ -11789,13 +11701,13 @@
       </c>
       <c r="C103" s="29"/>
       <c r="D103" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G103" s="29" t="s">
         <v>43</v>
@@ -11812,19 +11724,19 @@
       </c>
       <c r="C104" s="29"/>
       <c r="D104" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E104" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G104" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I104" s="29">
         <v>18</v>
@@ -11837,19 +11749,19 @@
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E105" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G105" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I105" s="29">
         <v>9</v>
@@ -11860,13 +11772,13 @@
         <v>0</v>
       </c>
       <c r="B106" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="29" t="s">
-        <v>337</v>
-      </c>
       <c r="D106" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E106" s="29" t="s">
         <v>46</v>
@@ -11883,13 +11795,13 @@
       </c>
       <c r="C107" s="29"/>
       <c r="D107" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E107" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G107" s="29" t="s">
         <v>45</v>
@@ -11904,13 +11816,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C108" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="29" t="s">
-        <v>339</v>
-      </c>
       <c r="D108" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E108" s="29" t="s">
         <v>46</v>
@@ -11927,13 +11839,13 @@
       </c>
       <c r="C109" s="29"/>
       <c r="D109" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E109" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>45</v>
@@ -11948,13 +11860,13 @@
         <v>0</v>
       </c>
       <c r="B110" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="C110" s="29" t="s">
-        <v>341</v>
-      </c>
       <c r="D110" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E110" s="29" t="s">
         <v>46</v>
@@ -11971,13 +11883,13 @@
       </c>
       <c r="C111" s="29"/>
       <c r="D111" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E111" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G111" s="29" t="s">
         <v>45</v>
@@ -11992,13 +11904,13 @@
         <v>0</v>
       </c>
       <c r="B112" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C112" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C112" s="29" t="s">
-        <v>343</v>
-      </c>
       <c r="D112" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>46</v>
@@ -12015,13 +11927,13 @@
       </c>
       <c r="C113" s="29"/>
       <c r="D113" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G113" s="29" t="s">
         <v>45</v>
@@ -12036,13 +11948,13 @@
         <v>0</v>
       </c>
       <c r="B114" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C114" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C114" s="29" t="s">
-        <v>345</v>
-      </c>
       <c r="D114" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E114" s="29" t="s">
         <v>50</v>
@@ -12059,13 +11971,13 @@
       </c>
       <c r="C115" s="29"/>
       <c r="D115" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E115" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G115" s="29" t="s">
         <v>45</v>
@@ -12080,13 +11992,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="29" t="s">
-        <v>347</v>
-      </c>
       <c r="D116" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E116" s="29" t="s">
         <v>46</v>
@@ -12103,13 +12015,13 @@
       </c>
       <c r="C117" s="29"/>
       <c r="D117" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E117" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G117" s="29" t="s">
         <v>45</v>
@@ -12124,13 +12036,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C118" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C118" s="29" t="s">
-        <v>349</v>
-      </c>
       <c r="D118" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E118" s="29" t="s">
         <v>46</v>
@@ -12147,13 +12059,13 @@
       </c>
       <c r="C119" s="29"/>
       <c r="D119" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E119" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G119" s="29" t="s">
         <v>45</v>
@@ -12170,19 +12082,19 @@
       </c>
       <c r="C120" s="29"/>
       <c r="D120" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E120" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="E120" s="29" t="s">
-        <v>351</v>
-      </c>
       <c r="F120" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G120" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I120" s="29">
         <v>10</v>
@@ -12193,13 +12105,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="C121" s="29" t="s">
-        <v>353</v>
-      </c>
       <c r="D121" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E121" s="29" t="s">
         <v>46</v>
@@ -12216,13 +12128,13 @@
       </c>
       <c r="C122" s="29"/>
       <c r="D122" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E122" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G122" s="29" t="s">
         <v>45</v>
@@ -12237,13 +12149,13 @@
         <v>0</v>
       </c>
       <c r="B123" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C123" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C123" s="29" t="s">
-        <v>355</v>
-      </c>
       <c r="D123" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E123" s="29" t="s">
         <v>50</v>
@@ -12260,13 +12172,13 @@
       </c>
       <c r="C124" s="29"/>
       <c r="D124" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E124" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G124" s="29" t="s">
         <v>45</v>
@@ -12281,13 +12193,13 @@
         <v>0</v>
       </c>
       <c r="B125" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="C125" s="29" t="s">
-        <v>357</v>
-      </c>
       <c r="D125" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E125" s="29" t="s">
         <v>46</v>
@@ -12304,13 +12216,13 @@
       </c>
       <c r="C126" s="29"/>
       <c r="D126" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E126" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G126" s="29" t="s">
         <v>45</v>
@@ -12325,13 +12237,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="C127" s="29" t="s">
-        <v>359</v>
-      </c>
       <c r="D127" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E127" s="29" t="s">
         <v>46</v>
@@ -12348,13 +12260,13 @@
       </c>
       <c r="C128" s="29"/>
       <c r="D128" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E128" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G128" s="29" t="s">
         <v>45</v>
@@ -12371,19 +12283,19 @@
       </c>
       <c r="C129" s="29"/>
       <c r="D129" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="E129" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="E129" s="29" t="s">
-        <v>361</v>
-      </c>
       <c r="F129" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I129" s="29">
         <v>1</v>
@@ -12394,13 +12306,13 @@
         <v>0</v>
       </c>
       <c r="B130" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C130" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="C130" s="29" t="s">
-        <v>364</v>
-      </c>
       <c r="D130" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E130" s="29" t="s">
         <v>50</v>
@@ -12417,13 +12329,13 @@
       </c>
       <c r="C131" s="29"/>
       <c r="D131" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E131" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G131" s="29" t="s">
         <v>45</v>
@@ -12438,13 +12350,13 @@
         <v>0</v>
       </c>
       <c r="B132" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C132" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="C132" s="29" t="s">
-        <v>366</v>
-      </c>
       <c r="D132" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E132" s="29" t="s">
         <v>46</v>
@@ -12461,13 +12373,13 @@
       </c>
       <c r="C133" s="29"/>
       <c r="D133" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E133" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>45</v>
@@ -12482,13 +12394,13 @@
         <v>0</v>
       </c>
       <c r="B134" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C134" s="29" t="s">
-        <v>368</v>
-      </c>
       <c r="D134" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E134" s="29" t="s">
         <v>46</v>
@@ -12505,13 +12417,13 @@
       </c>
       <c r="C135" s="29"/>
       <c r="D135" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E135" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G135" s="29" t="s">
         <v>45</v>
@@ -12551,13 +12463,13 @@
       </c>
       <c r="C137" s="29"/>
       <c r="D137" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E137" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G137" s="29" t="s">
         <v>43</v>
@@ -12574,19 +12486,19 @@
       </c>
       <c r="C138" s="29"/>
       <c r="D138" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E138" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G138" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I138" s="29">
         <v>18</v>
@@ -12599,19 +12511,19 @@
       </c>
       <c r="C139" s="29"/>
       <c r="D139" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E139" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G139" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I139" s="29">
         <v>9</v>
@@ -12624,13 +12536,13 @@
       </c>
       <c r="C140" s="29"/>
       <c r="D140" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E140" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F140" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G140" s="29" t="s">
         <v>43</v>
@@ -12647,19 +12559,19 @@
       </c>
       <c r="C141" s="29"/>
       <c r="D141" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E141" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G141" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H141" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I141" s="29">
         <v>18</v>
@@ -12672,19 +12584,19 @@
       </c>
       <c r="C142" s="29"/>
       <c r="D142" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E142" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G142" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H142" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I142" s="29">
         <v>9</v>
@@ -12697,13 +12609,13 @@
       </c>
       <c r="C143" s="29"/>
       <c r="D143" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E143" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G143" s="29" t="s">
         <v>43</v>
@@ -12720,19 +12632,19 @@
       </c>
       <c r="C144" s="29"/>
       <c r="D144" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E144" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G144" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I144" s="29">
         <v>18</v>
@@ -12745,19 +12657,19 @@
       </c>
       <c r="C145" s="29"/>
       <c r="D145" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E145" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G145" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H145" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I145" s="29">
         <v>9</v>
@@ -12768,13 +12680,13 @@
         <v>0</v>
       </c>
       <c r="B146" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C146" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C146" s="29" t="s">
-        <v>370</v>
-      </c>
       <c r="D146" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E146" s="29" t="s">
         <v>50</v>
@@ -12791,13 +12703,13 @@
       </c>
       <c r="C147" s="29"/>
       <c r="D147" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E147" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F147" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G147" s="29" t="s">
         <v>45</v>
@@ -12812,13 +12724,13 @@
         <v>0</v>
       </c>
       <c r="B148" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C148" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="C148" s="29" t="s">
-        <v>372</v>
-      </c>
       <c r="D148" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E148" s="29" t="s">
         <v>46</v>
@@ -12835,13 +12747,13 @@
       </c>
       <c r="C149" s="29"/>
       <c r="D149" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E149" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F149" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G149" s="29" t="s">
         <v>45</v>
@@ -12881,13 +12793,13 @@
       </c>
       <c r="C151" s="29"/>
       <c r="D151" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E151" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G151" s="29" t="s">
         <v>43</v>
@@ -12904,19 +12816,19 @@
       </c>
       <c r="C152" s="29"/>
       <c r="D152" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E152" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F152" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G152" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H152" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I152" s="29">
         <v>18</v>
@@ -12929,19 +12841,19 @@
       </c>
       <c r="C153" s="29"/>
       <c r="D153" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E153" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F153" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G153" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I153" s="29">
         <v>9</v>
@@ -12954,13 +12866,13 @@
       </c>
       <c r="C154" s="29"/>
       <c r="D154" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E154" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F154" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G154" s="29" t="s">
         <v>43</v>
@@ -12977,19 +12889,19 @@
       </c>
       <c r="C155" s="29"/>
       <c r="D155" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E155" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F155" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G155" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H155" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I155" s="29">
         <v>18</v>
@@ -13002,19 +12914,19 @@
       </c>
       <c r="C156" s="29"/>
       <c r="D156" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E156" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F156" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G156" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H156" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I156" s="29">
         <v>9</v>
@@ -13027,13 +12939,13 @@
       </c>
       <c r="C157" s="29"/>
       <c r="D157" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E157" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F157" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G157" s="29" t="s">
         <v>43</v>
@@ -13050,19 +12962,19 @@
       </c>
       <c r="C158" s="29"/>
       <c r="D158" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E158" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F158" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G158" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I158" s="29">
         <v>18</v>
@@ -13075,19 +12987,19 @@
       </c>
       <c r="C159" s="29"/>
       <c r="D159" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E159" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F159" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G159" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H159" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I159" s="29">
         <v>9</v>
@@ -13098,13 +13010,13 @@
         <v>0</v>
       </c>
       <c r="B160" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="C160" s="29" t="s">
-        <v>374</v>
-      </c>
       <c r="D160" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E160" s="29" t="s">
         <v>46</v>
@@ -13121,13 +13033,13 @@
       </c>
       <c r="C161" s="29"/>
       <c r="D161" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E161" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F161" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G161" s="29" t="s">
         <v>45</v>
@@ -13142,13 +13054,13 @@
         <v>0</v>
       </c>
       <c r="B162" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C162" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="C162" s="29" t="s">
-        <v>376</v>
-      </c>
       <c r="D162" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E162" s="29" t="s">
         <v>46</v>
@@ -13165,13 +13077,13 @@
       </c>
       <c r="C163" s="29"/>
       <c r="D163" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E163" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F163" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G163" s="29" t="s">
         <v>45</v>
@@ -13188,19 +13100,19 @@
       </c>
       <c r="C164" s="29"/>
       <c r="D164" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="E164" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="E164" s="29" t="s">
-        <v>378</v>
-      </c>
       <c r="F164" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G164" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I164" s="29">
         <v>10</v>
@@ -13211,13 +13123,13 @@
         <v>0</v>
       </c>
       <c r="B165" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C165" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C165" s="29" t="s">
-        <v>380</v>
-      </c>
       <c r="D165" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E165" s="29" t="s">
         <v>46</v>
@@ -13234,13 +13146,13 @@
       </c>
       <c r="C166" s="29"/>
       <c r="D166" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E166" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F166" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G166" s="29" t="s">
         <v>45</v>
@@ -13255,13 +13167,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C167" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="C167" s="29" t="s">
-        <v>382</v>
-      </c>
       <c r="D167" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E167" s="29" t="s">
         <v>46</v>
@@ -13278,13 +13190,13 @@
       </c>
       <c r="C168" s="29"/>
       <c r="D168" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E168" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G168" s="29" t="s">
         <v>45</v>
@@ -13299,13 +13211,13 @@
         <v>0</v>
       </c>
       <c r="B169" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C169" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="C169" s="29" t="s">
-        <v>384</v>
-      </c>
       <c r="D169" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E169" s="29" t="s">
         <v>46</v>
@@ -13322,13 +13234,13 @@
       </c>
       <c r="C170" s="29"/>
       <c r="D170" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E170" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F170" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G170" s="29" t="s">
         <v>45</v>
@@ -13343,13 +13255,13 @@
         <v>0</v>
       </c>
       <c r="B171" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C171" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="C171" s="29" t="s">
-        <v>386</v>
-      </c>
       <c r="D171" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E171" s="29" t="s">
         <v>46</v>
@@ -13366,13 +13278,13 @@
       </c>
       <c r="C172" s="29"/>
       <c r="D172" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F172" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G172" s="29" t="s">
         <v>45</v>
@@ -13389,13 +13301,13 @@
       </c>
       <c r="C173" s="29"/>
       <c r="D173" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E173" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="E173" s="29" t="s">
-        <v>388</v>
-      </c>
       <c r="F173" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G173" s="29" t="s">
         <v>44</v>
@@ -13412,19 +13324,19 @@
       </c>
       <c r="C174" s="29"/>
       <c r="D174" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E174" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="E174" s="29" t="s">
-        <v>390</v>
-      </c>
       <c r="F174" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G174" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H174" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I174" s="29">
         <v>9</v>
@@ -13437,19 +13349,19 @@
       </c>
       <c r="C175" s="29"/>
       <c r="D175" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E175" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="E175" s="29" t="s">
-        <v>392</v>
-      </c>
       <c r="F175" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G175" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H175" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I175" s="29">
         <v>16</v>
@@ -13460,13 +13372,13 @@
         <v>0</v>
       </c>
       <c r="B176" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C176" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="C176" s="29" t="s">
-        <v>394</v>
-      </c>
       <c r="D176" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E176" s="29" t="s">
         <v>46</v>
@@ -13483,13 +13395,13 @@
       </c>
       <c r="C177" s="29"/>
       <c r="D177" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E177" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G177" s="29" t="s">
         <v>45</v>
@@ -13506,19 +13418,19 @@
       </c>
       <c r="C178" s="29"/>
       <c r="D178" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E178" s="29" t="s">
         <v>41</v>
       </c>
       <c r="F178" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G178" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H178" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I178" s="29">
         <v>30</v>
@@ -13552,13 +13464,13 @@
       </c>
       <c r="C180" s="29"/>
       <c r="D180" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E180" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F180" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G180" s="29" t="s">
         <v>45</v>
@@ -13573,13 +13485,13 @@
         <v>0</v>
       </c>
       <c r="B181" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C181" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="C181" s="29" t="s">
-        <v>397</v>
-      </c>
       <c r="D181" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E181" s="29" t="s">
         <v>46</v>
@@ -13596,13 +13508,13 @@
       </c>
       <c r="C182" s="29"/>
       <c r="D182" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E182" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F182" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G182" s="29" t="s">
         <v>45</v>
@@ -13617,13 +13529,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C183" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="C183" s="29" t="s">
-        <v>399</v>
-      </c>
       <c r="D183" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E183" s="29" t="s">
         <v>46</v>
@@ -13640,13 +13552,13 @@
       </c>
       <c r="C184" s="29"/>
       <c r="D184" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E184" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F184" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G184" s="29" t="s">
         <v>45</v>
@@ -13661,13 +13573,13 @@
         <v>0</v>
       </c>
       <c r="B185" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C185" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="C185" s="29" t="s">
-        <v>401</v>
-      </c>
       <c r="D185" s="29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E185" s="29" t="s">
         <v>51</v>
@@ -13684,20 +13596,20 @@
       </c>
       <c r="C186" s="29"/>
       <c r="D186" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="E186" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="E186" s="29" t="s">
-        <v>403</v>
-      </c>
       <c r="F186" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G186" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H186" s="29"/>
       <c r="I186" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -13707,20 +13619,20 @@
       </c>
       <c r="C187" s="29"/>
       <c r="D187" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E187" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="E187" s="29" t="s">
-        <v>406</v>
-      </c>
       <c r="F187" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G187" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -13730,20 +13642,20 @@
       </c>
       <c r="C188" s="29"/>
       <c r="D188" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="E188" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="E188" s="29" t="s">
-        <v>409</v>
-      </c>
       <c r="F188" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G188" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -13753,13 +13665,13 @@
       </c>
       <c r="C189" s="29"/>
       <c r="D189" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E189" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="E189" s="29" t="s">
-        <v>412</v>
-      </c>
       <c r="F189" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G189" s="29" t="s">
         <v>48</v>
@@ -13774,13 +13686,13 @@
       </c>
       <c r="C190" s="29"/>
       <c r="D190" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E190" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="E190" s="29" t="s">
-        <v>414</v>
-      </c>
       <c r="F190" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G190" s="29" t="s">
         <v>43</v>
@@ -13797,13 +13709,13 @@
       </c>
       <c r="C191" s="29"/>
       <c r="D191" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="E191" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="E191" s="29" t="s">
-        <v>416</v>
-      </c>
       <c r="F191" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G191" s="29" t="s">
         <v>43</v>
@@ -13820,20 +13732,20 @@
       </c>
       <c r="C192" s="29"/>
       <c r="D192" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E192" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="E192" s="29" t="s">
-        <v>418</v>
-      </c>
       <c r="F192" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G192" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -13843,20 +13755,20 @@
       </c>
       <c r="C193" s="29"/>
       <c r="D193" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E193" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="E193" s="29" t="s">
-        <v>421</v>
-      </c>
       <c r="F193" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G193" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H193" s="29"/>
       <c r="I193" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -13866,13 +13778,13 @@
       </c>
       <c r="C194" s="29"/>
       <c r="D194" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="E194" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="E194" s="29" t="s">
-        <v>424</v>
-      </c>
       <c r="F194" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G194" s="29" t="s">
         <v>44</v>
@@ -13889,13 +13801,13 @@
       </c>
       <c r="C195" s="29"/>
       <c r="D195" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E195" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G195" s="29" t="s">
         <v>43</v>
@@ -13912,13 +13824,13 @@
       </c>
       <c r="C196" s="29"/>
       <c r="D196" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E196" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F196" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G196" s="29" t="s">
         <v>43</v>
@@ -13935,13 +13847,13 @@
       </c>
       <c r="C197" s="29"/>
       <c r="D197" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E197" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F197" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G197" s="29" t="s">
         <v>43</v>
@@ -13956,13 +13868,13 @@
         <v>0</v>
       </c>
       <c r="B198" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C198" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="C198" s="29" t="s">
-        <v>429</v>
-      </c>
       <c r="D198" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E198" s="29" t="s">
         <v>46</v>
@@ -13979,13 +13891,13 @@
       </c>
       <c r="C199" s="29"/>
       <c r="D199" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E199" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F199" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G199" s="29" t="s">
         <v>45</v>
@@ -14000,13 +13912,13 @@
         <v>0</v>
       </c>
       <c r="B200" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="C200" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C200" s="29" t="s">
-        <v>431</v>
-      </c>
       <c r="D200" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E200" s="29" t="s">
         <v>46</v>
@@ -14023,13 +13935,13 @@
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E201" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F201" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G201" s="29" t="s">
         <v>45</v>
@@ -14046,19 +13958,19 @@
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="E202" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="E202" s="29" t="s">
-        <v>433</v>
-      </c>
       <c r="F202" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G202" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H202" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I202" s="29">
         <v>15</v>
